--- a/data/trans_dic/P02E$nadie-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Edad-trans_dic.xlsx
@@ -676,28 +676,28 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.7958243262831342</v>
+        <v>0.7773779070494755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7619660306018073</v>
+        <v>0.7662125705734513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.841072125805545</v>
+        <v>0.8337685851723831</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8833412903180784</v>
+        <v>0.8823418672968005</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7550480785594802</v>
+        <v>0.7463417586074973</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.898407801654808</v>
+        <v>0.8887187955734991</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8799149026909625</v>
+        <v>0.8789737029842735</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7838365963130731</v>
+        <v>0.7908986122102878</v>
       </c>
     </row>
     <row r="6">
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.9755116577659664</v>
+        <v>0.9756364730962975</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9732122495060865</v>
+        <v>0.9742247869688078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9827824768430321</v>
+        <v>0.9817955056272285</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9719327441248782</v>
+        <v>0.9797843202587749</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9046227375882888</v>
+        <v>0.9007608769009889</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9890511388307215</v>
+        <v>0.9880280400097761</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9660953162141728</v>
+        <v>0.965827164133175</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9119843610048236</v>
+        <v>0.9063604489239787</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7697064062235527</v>
+        <v>0.7614430327742002</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8795967665438799</v>
+        <v>0.8798462152548516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8957203636946577</v>
+        <v>0.8885842903349158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8592724505021122</v>
+        <v>0.8613070919829628</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.871974749811351</v>
+        <v>0.8716697100723289</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8722568743381982</v>
+        <v>0.8750757289043248</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8447134832070934</v>
+        <v>0.8432303163101633</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8865608113045605</v>
+        <v>0.8836953424451701</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8946629898641568</v>
+        <v>0.8904567389480277</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8909639845458216</v>
+        <v>0.8923624070586402</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9500367315077588</v>
+        <v>0.9507893848887308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9668226044419678</v>
+        <v>0.9658874297319385</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9304682062176527</v>
+        <v>0.9297998367529112</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9348286345980698</v>
+        <v>0.9333965785450624</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9413512901607715</v>
+        <v>0.9417970136570565</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9049691828547012</v>
+        <v>0.9042396731123196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9324091412653635</v>
+        <v>0.9317689295868189</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9431580558159726</v>
+        <v>0.9418715146936796</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8779504033883734</v>
+        <v>0.8868124795810127</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8943075294008249</v>
+        <v>0.8942263800471302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8868964052517261</v>
+        <v>0.8840523063777502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9053182304660188</v>
+        <v>0.9039468501026843</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9247896247985413</v>
+        <v>0.922863539553179</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8516029685669361</v>
+        <v>0.8509907659030811</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9066472907271684</v>
+        <v>0.9055757511483479</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9190411043714913</v>
+        <v>0.9194701066646819</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.877899299657412</v>
+        <v>0.8780582182370857</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9463792425247749</v>
+        <v>0.9498646668644629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9499213871058079</v>
+        <v>0.9479869313775054</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9476523464630606</v>
+        <v>0.947832836129234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9590215820661161</v>
+        <v>0.9564395470730682</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9628913001994284</v>
+        <v>0.9617150140044106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9155811782806813</v>
+        <v>0.9152570065776801</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9468815072850174</v>
+        <v>0.9480441979772906</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9531666548148696</v>
+        <v>0.9516514924510884</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9223919654491139</v>
+        <v>0.9217206733478657</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9055121305936455</v>
+        <v>0.9040845031903992</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9116230544079407</v>
+        <v>0.9092695109819385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8575711085212314</v>
+        <v>0.8581530967505132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8645833352579666</v>
+        <v>0.8751887734533023</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9107285838393161</v>
+        <v>0.9167390840064925</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8725429323421635</v>
+        <v>0.8725367963777863</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9138460456624995</v>
+        <v>0.9074665287021244</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9228957229238146</v>
+        <v>0.9207391902155608</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8818035162767549</v>
+        <v>0.8848336154487204</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9838297549219085</v>
+        <v>0.9830769128393358</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9702888322746687</v>
+        <v>0.9685810585846616</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9476073839233919</v>
+        <v>0.9525821301065284</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9706129581092456</v>
+        <v>0.9745018415572355</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9674792030018444</v>
+        <v>0.9711750288510317</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9589345603394919</v>
+        <v>0.9547896390374382</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9738361995539668</v>
+        <v>0.9698030424938391</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9651391708082346</v>
+        <v>0.9638799992035143</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9421085065450958</v>
+        <v>0.9440297912337825</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6738220358878149</v>
+        <v>0.6686304335098374</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.747380291504524</v>
+        <v>0.7611686412830293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7580488070404692</v>
+        <v>0.756511818219239</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8386990837106321</v>
+        <v>0.8449991012457362</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7709600344745151</v>
+        <v>0.7487625092424527</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6580194819489694</v>
+        <v>0.6602881633089733</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8597002977614188</v>
+        <v>0.8559726158827309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7875875802443111</v>
+        <v>0.7860099460518022</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7417813141243417</v>
+        <v>0.7462956747343813</v>
       </c>
     </row>
     <row r="18">
@@ -1145,28 +1145,28 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9568486439948807</v>
+        <v>0.9552833421426988</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9732282730264203</v>
+        <v>0.9720344225162025</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9844000554141854</v>
+        <v>0.9842413540235411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9150405799216896</v>
+        <v>0.9082485479900426</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8810888038694077</v>
+        <v>0.8884817252510543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.977676407753913</v>
+        <v>0.9761221949391513</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9098958845558648</v>
+        <v>0.9069048212012949</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9048575681176411</v>
+        <v>0.8996414218457017</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4274518228691457</v>
+        <v>0.4029717505913062</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4659142300728965</v>
+        <v>0.4307321261947539</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5989290078104246</v>
+        <v>0.6096528432053245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8226226094420298</v>
+        <v>0.7982281815152079</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7287369803422025</v>
+        <v>0.7317098406168019</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6880527249096031</v>
+        <v>0.6511817168886096</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7586540316514911</v>
+        <v>0.7538806388976679</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6994760451244642</v>
+        <v>0.6908047350205406</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.702873737477566</v>
+        <v>0.6999412340920886</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8747660958880271</v>
+        <v>0.8709939638493432</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8591030265132285</v>
+        <v>0.8585728140075433</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9534391013210721</v>
+        <v>0.9543347110497831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9807913538812408</v>
+        <v>0.9777169419037515</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9382835462871117</v>
+        <v>0.93718810536415</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9413451732507525</v>
+        <v>0.9214676105321429</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9249429371833923</v>
+        <v>0.9359493286569471</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8847278684643294</v>
+        <v>0.8837933686975379</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9111912520408865</v>
+        <v>0.9100439653999057</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4922987093335479</v>
+        <v>0.495112016762496</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2466924909676368</v>
+        <v>0.287141625103383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.414458011845095</v>
+        <v>0.4001760613033782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4545417110614079</v>
+        <v>0.4396693967180845</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4057733295282986</v>
+        <v>0.4341703000407248</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4291568247079314</v>
+        <v>0.4407677722127225</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5186120942548849</v>
+        <v>0.5081367174977973</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.440988466297226</v>
+        <v>0.4400735341986671</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4893018580893781</v>
+        <v>0.4848815675593364</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8993451620468265</v>
+        <v>0.8981120861658216</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8433431986401798</v>
+        <v>0.8458602011255894</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9314515082493512</v>
+        <v>0.9301742530827846</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8219203402344568</v>
+        <v>0.8228623128383915</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7193640356610402</v>
+        <v>0.7217133379794634</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7574144152492104</v>
+        <v>0.7808671574657771</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8002168047451816</v>
+        <v>0.8094091766788676</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7068680342830457</v>
+        <v>0.7267451913631816</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7810464120308834</v>
+        <v>0.7644296454712061</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="28">
@@ -1726,28 +1726,28 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>32631</v>
+        <v>31875</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31055</v>
+        <v>31228</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>42521</v>
+        <v>42152</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>89777</v>
+        <v>89675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>67855</v>
+        <v>67072</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>72413</v>
+        <v>71633</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>125508</v>
+        <v>125373</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>102389</v>
+        <v>103311</v>
       </c>
     </row>
     <row r="7">
@@ -1759,28 +1759,28 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>39999</v>
+        <v>40004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39664</v>
+        <v>39706</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49686</v>
+        <v>49636</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>98780</v>
+        <v>99578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>81297</v>
+        <v>80950</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>79719</v>
+        <v>79637</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>137800</v>
+        <v>137762</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>119128</v>
+        <v>118393</v>
       </c>
     </row>
     <row r="8">
@@ -1865,31 +1865,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>128421</v>
+        <v>127042</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>188445</v>
+        <v>188498</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>155234</v>
+        <v>153997</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>260277</v>
+        <v>260893</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>340544</v>
+        <v>340425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>255923</v>
+        <v>256750</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>396803</v>
+        <v>396107</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>536177</v>
+        <v>534444</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>417547</v>
+        <v>415584</v>
       </c>
     </row>
     <row r="11">
@@ -1900,31 +1900,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>148652</v>
+        <v>148885</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>203536</v>
+        <v>203697</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>167556</v>
+        <v>167394</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>281843</v>
+        <v>281640</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>365091</v>
+        <v>364531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>276195</v>
+        <v>276326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>425108</v>
+        <v>424766</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>563905</v>
+        <v>563518</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>440180</v>
+        <v>439580</v>
       </c>
     </row>
     <row r="12">
@@ -2009,31 +2009,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>237544</v>
+        <v>239942</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>370665</v>
+        <v>370632</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>276521</v>
+        <v>275634</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>355011</v>
+        <v>354473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>530870</v>
+        <v>529764</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>346880</v>
+        <v>346631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>600841</v>
+        <v>600130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>908487</v>
+        <v>908911</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>631307</v>
+        <v>631421</v>
       </c>
     </row>
     <row r="15">
@@ -2044,31 +2044,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>256059</v>
+        <v>257002</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>393716</v>
+        <v>392914</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>295464</v>
+        <v>295520</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>376070</v>
+        <v>375057</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>552742</v>
+        <v>552067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>372940</v>
+        <v>372808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>627504</v>
+        <v>628275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>942220</v>
+        <v>940723</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>663302</v>
+        <v>662819</v>
       </c>
     </row>
     <row r="16">
@@ -2153,31 +2153,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>99981</v>
+        <v>99824</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>208487</v>
+        <v>207949</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>134536</v>
+        <v>134627</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>104481</v>
+        <v>105763</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>238276</v>
+        <v>239848</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>159025</v>
+        <v>159024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>211336</v>
+        <v>209861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>452525</v>
+        <v>451468</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>299050</v>
+        <v>300077</v>
       </c>
     </row>
     <row r="19">
@@ -2188,31 +2188,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>108629</v>
+        <v>108545</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>221904</v>
+        <v>221514</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>148661</v>
+        <v>149441</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>117295</v>
+        <v>117765</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>253124</v>
+        <v>254090</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>174771</v>
+        <v>174015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>225209</v>
+        <v>224277</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>473239</v>
+        <v>472621</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>319501</v>
+        <v>320153</v>
       </c>
     </row>
     <row r="20">
@@ -2297,31 +2297,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12096</v>
+        <v>12003</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36731</v>
+        <v>37409</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30505</v>
+        <v>30444</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56198</v>
+        <v>56620</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>77505</v>
+        <v>75274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37361</v>
+        <v>37490</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>73038</v>
+        <v>72722</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>117885</v>
+        <v>117648</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>71968</v>
+        <v>72406</v>
       </c>
     </row>
     <row r="23">
@@ -2335,28 +2335,28 @@
         <v>17951</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47026</v>
+        <v>46949</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39165</v>
+        <v>39117</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>65961</v>
+        <v>65950</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>91990</v>
+        <v>91307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>50026</v>
+        <v>50446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>83061</v>
+        <v>82929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>136191</v>
+        <v>135744</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>87790</v>
+        <v>87284</v>
       </c>
     </row>
     <row r="24">
@@ -2441,31 +2441,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6058</v>
+        <v>5711</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10387</v>
+        <v>9602</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12725</v>
+        <v>12953</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>38607</v>
+        <v>37462</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34457</v>
+        <v>34597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25082</v>
+        <v>23738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>46358</v>
+        <v>46066</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>48667</v>
+        <v>48063</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>40555</v>
+        <v>40386</v>
       </c>
     </row>
     <row r="27">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12398</v>
+        <v>12345</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19152</v>
+        <v>19140</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>20257</v>
+        <v>20276</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>46030</v>
+        <v>45885</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>34315</v>
+        <v>33590</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>56519</v>
+        <v>57191</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>61556</v>
+        <v>61491</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>52575</v>
+        <v>52509</v>
       </c>
     </row>
     <row r="28">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7974</v>
+        <v>8020</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3688</v>
+        <v>4292</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5161</v>
+        <v>4983</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11559</v>
+        <v>11181</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>16731</v>
+        <v>17902</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19269</v>
+        <v>19790</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>21588</v>
+        <v>21152</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24775</v>
+        <v>24724</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>28062</v>
+        <v>27809</v>
       </c>
     </row>
     <row r="31">
@@ -2620,31 +2620,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14568</v>
+        <v>14548</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12607</v>
+        <v>12645</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11599</v>
+        <v>11583</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20901</v>
+        <v>20925</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29661</v>
+        <v>29758</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>34007</v>
+        <v>35060</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>33311</v>
+        <v>33693</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39713</v>
+        <v>40829</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>44795</v>
+        <v>43842</v>
       </c>
     </row>
     <row r="32">
@@ -2729,31 +2729,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
     </row>
     <row r="35">
@@ -2764,31 +2764,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
     </row>
     <row r="36">
